--- a/Documents/benchmark.xlsx
+++ b/Documents/benchmark.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seongmoon/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seongmoon/PITT/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B108C9A-C52E-9543-997C-85BE82C6309C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4998F588-3556-2243-9CF2-ABE81676EBDD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="c10_jpg" sheetId="5" r:id="rId1"/>
@@ -5126,8 +5126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" activeCellId="2" sqref="C3 C6 C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -5322,7 +5322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
